--- a/public/excel/اسئلة مجموعة سمارت باكس.xlsx
+++ b/public/excel/اسئلة مجموعة سمارت باكس.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>الحديد</t>
   </si>
@@ -119,15 +119,6 @@
   </si>
   <si>
     <t>level</t>
-  </si>
-  <si>
-    <t>Hard</t>
-  </si>
-  <si>
-    <t>Mediam</t>
-  </si>
-  <si>
-    <t>Easy</t>
   </si>
   <si>
     <t>Low</t>
@@ -445,7 +436,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -465,7 +456,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>34</v>
@@ -494,7 +485,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
@@ -517,10 +508,10 @@
         <v>29</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>4</v>
@@ -543,10 +534,10 @@
         <v>30</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>8</v>
@@ -569,10 +560,10 @@
         <v>31</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>12</v>
@@ -595,10 +586,10 @@
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>15</v>

--- a/public/excel/اسئلة مجموعة سمارت باكس.xlsx
+++ b/public/excel/اسئلة مجموعة سمارت باكس.xlsx
@@ -14,73 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
-  <si>
-    <t>الحديد</t>
-  </si>
-  <si>
-    <t>كاليسيوم</t>
-  </si>
-  <si>
-    <t>زنك</t>
-  </si>
-  <si>
-    <t>ماغنيسيوم</t>
-  </si>
-  <si>
-    <t>كورونا</t>
-  </si>
-  <si>
-    <t>الطاعون</t>
-  </si>
-  <si>
-    <t>فلاونزا الطيور</t>
-  </si>
-  <si>
-    <t>السلطان</t>
-  </si>
-  <si>
-    <t>سيف</t>
-  </si>
-  <si>
-    <t>حجر</t>
-  </si>
-  <si>
-    <t>ثمين</t>
-  </si>
-  <si>
-    <t>خاتم</t>
-  </si>
-  <si>
-    <t>مدار الجدي</t>
-  </si>
-  <si>
-    <t>مدار السرطان</t>
-  </si>
-  <si>
-    <t>المدار الاستوائي</t>
-  </si>
-  <si>
-    <t>الحمص</t>
-  </si>
-  <si>
-    <t>العدس</t>
-  </si>
-  <si>
-    <t>الفاصولياء</t>
-  </si>
-  <si>
-    <t>الفول</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="136">
   <si>
     <t>question</t>
   </si>
@@ -100,24 +34,6 @@
     <t>correct</t>
   </si>
   <si>
-    <t>ما هو العنصر الغذائي الذي لا يوجد في حليب</t>
-  </si>
-  <si>
-    <t>ما هو المرض الذي فتك بنصف سكان أوروبا</t>
-  </si>
-  <si>
-    <t>ما هو الشيء الذي تتمحور حوله رواية (the lord of the ring)</t>
-  </si>
-  <si>
-    <t>ما هو المدار الذي يمرّ في أكبر عدد من الدول العربية</t>
-  </si>
-  <si>
-    <t>تطبخ الفلافل في أي نوع من البقوليات</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>level</t>
   </si>
   <si>
@@ -127,14 +43,392 @@
     <t>type</t>
   </si>
   <si>
-    <t>One</t>
+    <t>أين تقم القاهرة؟</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>السعودية</t>
+  </si>
+  <si>
+    <t>فلسطين</t>
+  </si>
+  <si>
+    <t>مصر</t>
+  </si>
+  <si>
+    <t>لبنان</t>
+  </si>
+  <si>
+    <t>كم عدد حروف اللغة العربية</t>
+  </si>
+  <si>
+    <t>25 حرفاً</t>
+  </si>
+  <si>
+    <t>30 حرفاً</t>
+  </si>
+  <si>
+    <t>28 حرفاً</t>
+  </si>
+  <si>
+    <t>35 حرفاً</t>
+  </si>
+  <si>
+    <t>ما هو الشيئ الذي ينام عليه الإنسان؟</t>
+  </si>
+  <si>
+    <t>الكرسي</t>
+  </si>
+  <si>
+    <t>السرير</t>
+  </si>
+  <si>
+    <t>الثلاجة</t>
+  </si>
+  <si>
+    <t>الطاولة</t>
+  </si>
+  <si>
+    <t>ما هي عملة السعودية؟</t>
+  </si>
+  <si>
+    <t>الدينار</t>
+  </si>
+  <si>
+    <t>الدولار</t>
+  </si>
+  <si>
+    <t>الريال</t>
+  </si>
+  <si>
+    <t>الين</t>
+  </si>
+  <si>
+    <t>توجد مدينة حيفا في؟</t>
+  </si>
+  <si>
+    <t>سوريا</t>
+  </si>
+  <si>
+    <t>الاردن</t>
+  </si>
+  <si>
+    <t>يوجد في اليد الواحدة؟</t>
+  </si>
+  <si>
+    <t>7 أصابع</t>
+  </si>
+  <si>
+    <t>8 أصابع</t>
+  </si>
+  <si>
+    <t>6 أصابع</t>
+  </si>
+  <si>
+    <t>5 أصابع</t>
+  </si>
+  <si>
+    <t>ما عكس كلمة متسخ؟</t>
+  </si>
+  <si>
+    <t>خشن</t>
+  </si>
+  <si>
+    <t>لامع</t>
+  </si>
+  <si>
+    <t>ناعم</t>
+  </si>
+  <si>
+    <t>نظيف</t>
+  </si>
+  <si>
+    <t>يصلي المسلمون صلاة الجمعة مرة كل ؟</t>
+  </si>
+  <si>
+    <t>شهر</t>
+  </si>
+  <si>
+    <t>قرن</t>
+  </si>
+  <si>
+    <t>سنة</t>
+  </si>
+  <si>
+    <t>أسبوع</t>
+  </si>
+  <si>
+    <t>أبو البشر؟</t>
+  </si>
+  <si>
+    <t>أدم عليه السلام</t>
+  </si>
+  <si>
+    <t>نوح عليه السلام</t>
+  </si>
+  <si>
+    <t>إبراهيم عليه السلام</t>
+  </si>
+  <si>
+    <t>موسي عليه السلام</t>
+  </si>
+  <si>
+    <t>كم صفر للمليون؟</t>
+  </si>
+  <si>
+    <t>ستة</t>
+  </si>
+  <si>
+    <t>خمسة</t>
+  </si>
+  <si>
+    <t>ثمانية</t>
+  </si>
+  <si>
+    <t>سبعة</t>
+  </si>
+  <si>
+    <t>ما هو جمع كلمة شجرة؟</t>
+  </si>
+  <si>
+    <t>شجاير</t>
+  </si>
+  <si>
+    <t>أشجار</t>
+  </si>
+  <si>
+    <t>شجران</t>
+  </si>
+  <si>
+    <t>أشاجر</t>
+  </si>
+  <si>
+    <t>تقع اليمن في قارة؟</t>
+  </si>
+  <si>
+    <t>أوروبا</t>
+  </si>
+  <si>
+    <t>أسيا</t>
+  </si>
+  <si>
+    <t>أمريكا الجنوبية</t>
+  </si>
+  <si>
+    <t>أفريقيا</t>
+  </si>
+  <si>
+    <t>ماذا يسمى طلوع الشمس؟</t>
+  </si>
+  <si>
+    <t>ظهور</t>
+  </si>
+  <si>
+    <t>غروب</t>
+  </si>
+  <si>
+    <t>شروق</t>
+  </si>
+  <si>
+    <t>زوال</t>
+  </si>
+  <si>
+    <t>أول مسجد بني في الإسلام هو؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediam	</t>
+  </si>
+  <si>
+    <t>مسجد قباء</t>
+  </si>
+  <si>
+    <t>المسجد الحرام</t>
+  </si>
+  <si>
+    <t>المسجد النبوي</t>
+  </si>
+  <si>
+    <t>مسجد ذي القبلتين</t>
+  </si>
+  <si>
+    <t>ما هو الحيوان الذي يلقب بسفينة الصحراء؟</t>
+  </si>
+  <si>
+    <t>الحصان</t>
+  </si>
+  <si>
+    <t>الثور</t>
+  </si>
+  <si>
+    <t>الماعز</t>
+  </si>
+  <si>
+    <t>الجمل</t>
+  </si>
+  <si>
+    <t>من هو إمام المؤذين يوم القيامة؟</t>
+  </si>
+  <si>
+    <t>عبد الله بن أم مكتوم</t>
+  </si>
+  <si>
+    <t>بلال بن رباح</t>
+  </si>
+  <si>
+    <t>ثابت بن قيس</t>
+  </si>
+  <si>
+    <t>زيد بن الخطاب</t>
+  </si>
+  <si>
+    <t>تقع لبنان في قارة؟</t>
+  </si>
+  <si>
+    <t>الشخص الذي فقد والديه يسمى؟</t>
+  </si>
+  <si>
+    <t>فقيرا</t>
+  </si>
+  <si>
+    <t>أسيرا</t>
+  </si>
+  <si>
+    <t>يتيما</t>
+  </si>
+  <si>
+    <t>سجينا</t>
+  </si>
+  <si>
+    <t>أول نبي في الاسلام؟</t>
+  </si>
+  <si>
+    <t>آدم عليه السلام</t>
+  </si>
+  <si>
+    <t>ادريس عليه السلام</t>
+  </si>
+  <si>
+    <t>كم دقيقة في الساعة؟</t>
+  </si>
+  <si>
+    <t>ما هي الصلاة الوسطى؟</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>صلاة العصر</t>
+  </si>
+  <si>
+    <t>صلاة العشاء</t>
+  </si>
+  <si>
+    <t>صلاة الظهر</t>
+  </si>
+  <si>
+    <t>صلاة المغرب</t>
+  </si>
+  <si>
+    <t>إذا جاع الطفل حديث الولادة فإنه؟</t>
+  </si>
+  <si>
+    <t>يرقص</t>
+  </si>
+  <si>
+    <t>يبكي</t>
+  </si>
+  <si>
+    <t>ينام</t>
+  </si>
+  <si>
+    <t>يضحك</t>
+  </si>
+  <si>
+    <t>أي الدول التالية لها حدود مع سوريا؟</t>
+  </si>
+  <si>
+    <t>إيران</t>
+  </si>
+  <si>
+    <t>الصين</t>
+  </si>
+  <si>
+    <t>ما هى عملة مصر؟</t>
+  </si>
+  <si>
+    <t>دولار</t>
+  </si>
+  <si>
+    <t>ريال</t>
+  </si>
+  <si>
+    <t>جنيه</t>
+  </si>
+  <si>
+    <t>درهم</t>
+  </si>
+  <si>
+    <t>تجد عنده الأدوية ومستحضراتها؟</t>
+  </si>
+  <si>
+    <t>المهندس</t>
+  </si>
+  <si>
+    <t>الطبيب</t>
+  </si>
+  <si>
+    <t>المعلم</t>
+  </si>
+  <si>
+    <t>الصيدلي</t>
+  </si>
+  <si>
+    <t>كم ثانية توجد في الدقيقة؟</t>
+  </si>
+  <si>
+    <t>70 ثانية</t>
+  </si>
+  <si>
+    <t>60 ثانية</t>
+  </si>
+  <si>
+    <t>50 ثانية</t>
+  </si>
+  <si>
+    <t>55 ثانية</t>
+  </si>
+  <si>
+    <t>اختر العدد الفردي من بين الأعداد الآتية؟</t>
+  </si>
+  <si>
+    <t>من هو الشخص الذي تقع في شباكه الأسماك؟</t>
+  </si>
+  <si>
+    <t>التاجر</t>
+  </si>
+  <si>
+    <t>الحداد</t>
+  </si>
+  <si>
+    <t>النجار</t>
+  </si>
+  <si>
+    <t>الصياد</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -152,8 +446,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1E293B"/>
+      <name val="-apple-system"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,8 +465,14 @@
         <bgColor rgb="FFB6D7A8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -190,11 +495,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -203,19 +521,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,14 +747,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="66.5703125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -451,160 +766,845 @@
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="31.5" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="27" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5">
+        <v>3</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="27" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5">
+        <v>3</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="27" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="27" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="27" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="5">
+        <v>4</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="5">
+        <v>4</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="5">
+        <v>4</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="5">
+        <v>2</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="5">
+        <v>3</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="5">
+        <v>4</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="5">
+        <v>2</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="5">
+        <v>4</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="5">
+        <v>3</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="3">
+        <v>12</v>
+      </c>
+      <c r="E21" s="3">
+        <v>30</v>
+      </c>
+      <c r="F21" s="3">
+        <v>60</v>
+      </c>
+      <c r="G21" s="3">
+        <v>50</v>
+      </c>
+      <c r="H21" s="5">
+        <v>3</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" s="5">
+        <v>2</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="5">
+        <v>3</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="5">
+        <v>4</v>
+      </c>
+      <c r="I26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" s="5">
+        <v>2</v>
+      </c>
+      <c r="I27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="3">
+        <v>31</v>
+      </c>
+      <c r="E28" s="3">
+        <v>32</v>
+      </c>
+      <c r="F28" s="3">
+        <v>30</v>
+      </c>
+      <c r="G28" s="3">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="H28" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="5">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>21</v>
+      <c r="I29" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
